--- a/data_year/zb/卫生/医疗卫生机构门诊服务情况.xlsx
+++ b/data_year/zb/卫生/医疗卫生机构门诊服务情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,323 +473,317 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>96.55</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6733.2324</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F2" t="n">
-        <v>49.00897</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>58.37615842</v>
+      </c>
+      <c r="G2" t="n">
+        <v>55.21322052</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28705.2062</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>95.7721591499469</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.072068197302583</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7028.3024</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.049770197708055</v>
+      </c>
       <c r="F3" t="n">
-        <v>54.87671412</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>62.71226278</v>
+      </c>
+      <c r="G3" t="n">
+        <v>59.44811444</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34369.5968</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>96.55</v>
-      </c>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.08</v>
+        <v>0.068508370669291</v>
       </c>
       <c r="D4" t="n">
-        <v>6733.2324</v>
+        <v>6498.0116</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05</v>
+        <v>0.054516677070875</v>
       </c>
       <c r="F4" t="n">
-        <v>58.37615842</v>
+        <v>68.88329138</v>
       </c>
       <c r="G4" t="n">
-        <v>55.21322052</v>
+        <v>65.29935754</v>
       </c>
       <c r="H4" t="n">
-        <v>28705.2062</v>
+        <v>36702.6769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>95.7721591499469</v>
-      </c>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.072068197302583</v>
+        <v>0.06826694030423699</v>
       </c>
       <c r="D5" t="n">
-        <v>7028.3024</v>
+        <v>6410.3939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.049770197708055</v>
+        <v>0.059815357056296</v>
       </c>
       <c r="F5" t="n">
-        <v>62.71226278</v>
+        <v>73.14009677999999</v>
       </c>
       <c r="G5" t="n">
-        <v>59.44811444</v>
+        <v>69.60524448</v>
       </c>
       <c r="H5" t="n">
-        <v>34369.5968</v>
+        <v>38832.5749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.068508370669291</v>
+        <v>0.0658417676</v>
       </c>
       <c r="D6" t="n">
-        <v>6498.0116</v>
+        <v>5977.0825</v>
       </c>
       <c r="E6" t="n">
-        <v>0.054516677070875</v>
+        <v>0.060179862</v>
       </c>
       <c r="F6" t="n">
-        <v>68.88329138</v>
+        <v>76.01866343</v>
       </c>
       <c r="G6" t="n">
-        <v>65.29935754</v>
+        <v>72.5864332</v>
       </c>
       <c r="H6" t="n">
-        <v>36702.6769</v>
+        <v>37305.5601</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.06826694030423699</v>
+        <v>0.066056745834599</v>
       </c>
       <c r="D7" t="n">
-        <v>6410.3939</v>
+        <v>5468.3454</v>
       </c>
       <c r="E7" t="n">
-        <v>0.059815357056296</v>
+        <v>0.07623329718711599</v>
       </c>
       <c r="F7" t="n">
-        <v>73.14009677999999</v>
+        <v>76.99251846</v>
       </c>
       <c r="G7" t="n">
-        <v>69.60524448</v>
+        <v>73.69467442</v>
       </c>
       <c r="H7" t="n">
-        <v>38832.5749</v>
+        <v>38457.9015</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.0658417676</v>
+        <v>0.0710070106</v>
       </c>
       <c r="D8" t="n">
-        <v>5977.0825</v>
+        <v>5077.0028</v>
       </c>
       <c r="E8" t="n">
-        <v>0.060179862</v>
+        <v>0.0916091675</v>
       </c>
       <c r="F8" t="n">
-        <v>76.01866343</v>
+        <v>79.31700496000001</v>
       </c>
       <c r="G8" t="n">
-        <v>72.5864332</v>
+        <v>76.0034101</v>
       </c>
       <c r="H8" t="n">
-        <v>37305.5601</v>
+        <v>45290.1318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.066056745834599</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>5468.3454</v>
+        <v>4944.6944</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07623329718711599</v>
+        <v>0.09</v>
       </c>
       <c r="F9" t="n">
-        <v>76.99251846</v>
+        <v>81.83109952</v>
       </c>
       <c r="G9" t="n">
-        <v>73.69467442</v>
+        <v>78.47825352</v>
       </c>
       <c r="H9" t="n">
-        <v>38457.9015</v>
+        <v>41855.7802</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>0.0710070106</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>5077.0028</v>
+        <v>4488.9735</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0916091675</v>
+        <v>0.09</v>
       </c>
       <c r="F10" t="n">
-        <v>79.31700496000001</v>
+        <v>83.08016929999999</v>
       </c>
       <c r="G10" t="n">
-        <v>76.0034101</v>
+        <v>79.78158024</v>
       </c>
       <c r="H10" t="n">
-        <v>45290.1318</v>
+        <v>43534.7618</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D11" t="n">
-        <v>4944.6944</v>
+        <v>4377.7094</v>
       </c>
       <c r="E11" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="F11" t="n">
-        <v>81.83109952</v>
+        <v>87.19873081999999</v>
       </c>
       <c r="G11" t="n">
-        <v>78.47825352</v>
+        <v>83.75473823999999</v>
       </c>
       <c r="H11" t="n">
-        <v>41855.7802</v>
+        <v>44353.001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D12" t="n">
-        <v>4488.9735</v>
+        <v>3142.3286</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="F12" t="n">
-        <v>83.08016929999999</v>
+        <v>77.41048129000001</v>
       </c>
       <c r="G12" t="n">
-        <v>79.78158024</v>
+        <v>74.04560425</v>
       </c>
       <c r="H12" t="n">
-        <v>43534.7618</v>
+        <v>43093.8231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D13" t="n">
-        <v>4377.7094</v>
+        <v>3506.0478</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="F13" t="n">
-        <v>87.19873081999999</v>
+        <v>84.72033436</v>
       </c>
       <c r="G13" t="n">
-        <v>83.75473823999999</v>
+        <v>80.4135295</v>
       </c>
       <c r="H13" t="n">
-        <v>44353.001</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3142.3286</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F14" t="n">
-        <v>77.41048129000001</v>
-      </c>
-      <c r="G14" t="n">
-        <v>74.04560425</v>
-      </c>
-      <c r="H14" t="n">
-        <v>43093.8231</v>
+        <v>54873.0348</v>
       </c>
     </row>
   </sheetData>
